--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_10-56.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_10-56.xlsx
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>1:2</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 24 F.C. TAB</t>
+  </si>
+  <si>
+    <t>4:1</t>
   </si>
   <si>
     <t>SAMA GAR SACHET</t>
@@ -1080,17 +1086,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1098,7 +1104,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1106,13 +1112,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
@@ -1138,11 +1144,11 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1158,17 +1164,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1176,7 +1182,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1184,7 +1190,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -1194,7 +1200,7 @@
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1202,7 +1208,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1210,17 +1216,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1242,11 +1248,11 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1262,17 +1268,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1280,7 +1286,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1288,17 +1294,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1320,11 +1326,11 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1346,7 +1352,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
@@ -1354,37 +1360,63 @@
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
-      <c r="K28" s="11">
-        <v>1798.1199999999999</v>
-      </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-    </row>
-    <row r="29" ht="17.25" customHeight="1">
-      <c t="s" r="A29" s="12">
+      <c r="A28" s="6">
+        <v>25</v>
+      </c>
+      <c t="s" r="B28" s="7">
         <v>46</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c t="s" r="F29" s="13">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c t="s" r="H28" s="8">
         <v>47</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
-      <c t="s" r="I29" s="15">
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9">
+        <v>30</v>
+      </c>
+      <c r="M28" s="9"/>
+      <c r="N28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="K29" s="11">
+        <v>1827.1199999999999</v>
+      </c>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="12">
         <v>48</v>
       </c>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c t="s" r="F30" s="13">
+        <v>49</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+      <c t="s" r="I30" s="15">
+        <v>50</v>
+      </c>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="86">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1464,10 +1496,13 @@
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:N30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
